--- a/emr/exports/templates/export-template-detail.test.xlsx
+++ b/emr/exports/templates/export-template-detail.test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="49">
   <si>
     <t>Sheet Num</t>
   </si>
@@ -166,17 +166,24 @@
   <si>
     <t>T14</t>
   </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,8 +256,26 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF963634"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,7 +302,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,137 +505,166 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -600,6 +672,14 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="heading" xfId="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -608,6 +688,14 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -937,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1148,22 +1236,56 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="D2:I11">
-    <sortCondition ref="D2:D11"/>
-    <sortCondition ref="E2:E11"/>
+  <sortState ref="D2:I13">
+    <sortCondition ref="D2:D13"/>
+    <sortCondition ref="E2:E13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1177,402 +1299,1074 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="2.33203125" style="5"/>
+    <col min="1" max="40" width="2.33203125" style="4"/>
+    <col min="41" max="42" width="2.33203125" style="12"/>
+    <col min="43" max="16384" width="2.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:40" ht="14" customHeight="1" thickBot="1">
-      <c r="AG2" s="34" t="s">
+    <row r="1" spans="1:42" ht="14" customHeight="1" thickBot="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="14" customHeight="1" thickBot="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
-    </row>
-    <row r="4" spans="1:40" ht="14" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="14" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="14" customHeight="1">
+      <c r="A4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="T4" s="14" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15" t="s">
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-    </row>
-    <row r="6" spans="1:40" ht="14" customHeight="1">
-      <c r="L6" s="11" t="s">
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="14" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="14" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="Y6" s="19" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21"/>
-    </row>
-    <row r="7" spans="1:40" ht="14" customHeight="1">
-      <c r="L7" s="35" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="14" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="Y7" s="16" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17" t="s">
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="1:40" ht="14" customHeight="1">
-      <c r="L8" s="22"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="1:40" ht="14" customHeight="1">
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="18"/>
-    </row>
-    <row r="10" spans="1:40" ht="14" customHeight="1">
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="1:40" ht="14" customHeight="1">
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="18"/>
-    </row>
-    <row r="12" spans="1:40" ht="14" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="14" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="14" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="14" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="14" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="14" customHeight="1">
+      <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-    </row>
-    <row r="13" spans="1:40" ht="14" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="14" customHeight="1">
+      <c r="A13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="T13" s="11" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="13"/>
-    </row>
-    <row r="14" spans="1:40" ht="14" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="T14" s="22" t="s">
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="14" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
       <c r="Z14" s="8"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
       <c r="AG14" s="8"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="10"/>
-    </row>
-    <row r="15" spans="1:40" ht="14" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
-    </row>
-    <row r="16" spans="1:40" ht="14" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28"/>
-    </row>
-    <row r="17" spans="1:40" ht="14" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
-    </row>
-    <row r="18" spans="1:40" ht="14" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
-    </row>
-    <row r="19" spans="1:40" ht="14" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="21" spans="1:40" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="14" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="14" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="14" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="14" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="14" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="14" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" s="5" customFormat="1" ht="14" customHeight="1">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="38" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="39"/>
-    </row>
-    <row r="22" spans="1:40" ht="14" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="14" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="42" t="s">
         <v>16</v>
       </c>
@@ -1603,246 +2397,1916 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="42"/>
       <c r="AN22" s="43"/>
-    </row>
-    <row r="23" spans="1:40" ht="14" customHeight="1">
-      <c r="A23" s="16" t="s">
+      <c r="AO22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="14" customHeight="1">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="M23" s="40" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="41"/>
-    </row>
-    <row r="24" spans="1:40" ht="14" customHeight="1">
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-    </row>
-    <row r="25" spans="1:40" ht="14" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="14" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP24" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="14" customHeight="1">
+      <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="M25" s="40" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="41"/>
-    </row>
-    <row r="26" spans="1:40" ht="14" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP25" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="14" customHeight="1">
+      <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="M26" s="40" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="41"/>
-    </row>
-    <row r="27" spans="1:40" ht="14" customHeight="1">
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-    </row>
-    <row r="28" spans="1:40" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP26" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="14" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" s="5" customFormat="1" ht="14" customHeight="1">
+      <c r="A28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="40" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="41"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP28" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="14" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP29" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="14" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="14" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP31" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="14" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="14" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" ht="14" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP34" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="14" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="14" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="14" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP37" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="14" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP38" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="14" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="14" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP40" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="14" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="14" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="14" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP43" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" ht="14" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP44" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="14" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP45" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="14" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP46" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" ht="14" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP47" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" ht="14" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP48" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" ht="14" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP49" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" ht="14" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP50" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" ht="14" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP51" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" ht="14" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP52" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" ht="14" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP53" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" ht="14" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP54" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" ht="14" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP55" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" ht="14" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP56" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" ht="14" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP57" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" ht="14" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP58" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="116">
@@ -1855,16 +4319,9 @@
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AK21:AL21"/>
     <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
     <mergeCell ref="AK22:AL22"/>
     <mergeCell ref="AM22:AN22"/>
     <mergeCell ref="M21:N21"/>
@@ -1888,7 +4345,6 @@
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="W22:X22"/>
     <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="AI23:AJ23"/>
     <mergeCell ref="AK23:AL23"/>
     <mergeCell ref="AM23:AN23"/>
@@ -1905,12 +4361,14 @@
     <mergeCell ref="AI25:AJ25"/>
     <mergeCell ref="AK25:AL25"/>
     <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="AI28:AJ28"/>
     <mergeCell ref="AK28:AL28"/>
     <mergeCell ref="AM28:AN28"/>
@@ -1938,6 +4396,21 @@
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A13:Q19"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="T13:AM13"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A25:K25"/>
@@ -1950,18 +4423,9 @@
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AG23:AH23"/>
     <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A13:Q19"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="T13:AM13"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1977,21 +4441,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="4" spans="3:8">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2000,52 +4592,270 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="3:8">
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="D8" s="4" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="3:8">
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:8">
+      <c r="G9" s="15"/>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
